--- a/testData/qa/customer_churn.xlsx
+++ b/testData/qa/customer_churn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naga.kumar\customerAi\testData\qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6E268B-FD7D-4A74-A26B-B22A608DF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBE7D6-59BC-4F6C-B6EB-794E8857C007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE76EA1F-E72F-46B2-BEA2-9E761BC260D6}"/>
+    <workbookView xWindow="-40" yWindow="-40" windowWidth="19280" windowHeight="10280" xr2:uid="{EE76EA1F-E72F-46B2-BEA2-9E761BC260D6}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_churn_Filter" sheetId="4" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Date Range</t>
   </si>
   <si>
-    <t>Credit Cards: Silver, Gold, Platinum &amp; Millennium</t>
-  </si>
-  <si>
     <t>Within 180 days</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Customer Churn Drivers for Top 50% to 100%</t>
+  </si>
+  <si>
+    <t>Credit Cards</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -592,10 +592,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -627,19 +627,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -647,19 +647,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,19 +667,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -687,19 +687,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -707,19 +707,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -727,19 +727,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -747,19 +747,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
